--- a/LLT model FBR20.xlsx
+++ b/LLT model FBR20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marc:</t>
         </r>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>This assumes no vehicle roll, hence an even (uniform) lateral distribution of aero loading.</t>
         </r>
@@ -1139,13 +1139,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1352,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1385,28 +1385,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1416,12 +1411,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,16 +1430,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,7 +1724,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1747,31 +1748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
       <c r="J1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="26"/>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="40"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="43"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1791,10 +1792,10 @@
         <v>101</v>
       </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="M2" s="24"/>
@@ -1804,8 +1805,8 @@
       </c>
       <c r="Q2" s="12"/>
       <c r="T2" s="29"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
       <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1814,33 +1815,33 @@
       </c>
       <c r="B3" s="2">
         <f>B7/2</f>
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C9" si="0">B3*9.80665</f>
-        <v>657.53588249999996</v>
+        <v>661.94887499999993</v>
       </c>
       <c r="D3" s="29"/>
       <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="2">
-        <v>2.24E-2</v>
+      <c r="G3" s="55">
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="H3" s="6">
         <f>G3*1000</f>
-        <v>22.4</v>
+        <v>26.5</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="33">
         <f>(G24/2)-G31</f>
-        <v>100.38972757793653</v>
-      </c>
-      <c r="L3" s="50">
+        <v>113.528456992169</v>
+      </c>
+      <c r="L3" s="34">
         <f>K3*9.80665</f>
-        <v>984.4869219521712</v>
+        <v>1113.3338427622541</v>
       </c>
       <c r="M3" s="24"/>
       <c r="O3" s="4" t="s">
@@ -1861,33 +1862,33 @@
       </c>
       <c r="B4" s="2">
         <f>B7/2</f>
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>657.53588249999996</v>
+        <v>661.94887499999993</v>
       </c>
       <c r="D4" s="29"/>
       <c r="F4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="8">
-        <v>3.1699999999999999E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="H4" s="9">
         <f>G4*1000</f>
-        <v>31.7</v>
+        <v>37.1</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="33">
         <f>(G24/2)+G31</f>
-        <v>33.710272422063461</v>
-      </c>
-      <c r="L4" s="50">
+        <v>21.471543007831009</v>
+      </c>
+      <c r="L4" s="34">
         <f>K4*9.80665</f>
-        <v>330.5848430478286</v>
+        <v>210.56390723774595</v>
       </c>
       <c r="M4" s="24"/>
       <c r="O4" s="4" t="s">
@@ -1908,23 +1909,23 @@
       </c>
       <c r="B5" s="2">
         <f>B8/2</f>
-        <v>81.95</v>
+        <v>82.5</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>803.6549675</v>
+        <v>809.0486249999999</v>
       </c>
       <c r="D5" s="29"/>
       <c r="J5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="33">
         <f>(G25/2)-G32</f>
-        <v>120.64611128882697</v>
-      </c>
-      <c r="L5" s="50">
+        <v>156.64311660941445</v>
+      </c>
+      <c r="L5" s="34">
         <f>K5*9.80665</f>
-        <v>1183.134187270575</v>
+        <v>1536.1442194977142</v>
       </c>
       <c r="M5" s="24"/>
       <c r="O5" s="4" t="s">
@@ -1945,28 +1946,28 @@
       </c>
       <c r="B6" s="2">
         <f>B8/2</f>
-        <v>81.95</v>
+        <v>82.5</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>803.6549675</v>
+        <v>809.0486249999999</v>
       </c>
       <c r="D6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
       <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="35">
         <f>(G25/2)+G32</f>
-        <v>43.253888711173033</v>
-      </c>
-      <c r="L6" s="52">
+        <v>8.3568833905855939</v>
+      </c>
+      <c r="L6" s="36">
         <f>K6*9.80665</f>
-        <v>424.17574772942498</v>
+        <v>81.953030502286211</v>
       </c>
       <c r="M6" s="24"/>
       <c r="O6" s="4" t="s">
@@ -1987,11 +1988,11 @@
       </c>
       <c r="B7" s="2">
         <f>B9*(100-B11)/100</f>
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>1315.0717649999999</v>
+        <v>1323.8977499999999</v>
       </c>
       <c r="D7" s="29"/>
       <c r="F7" s="11"/>
@@ -2018,29 +2019,29 @@
       </c>
       <c r="B8" s="2">
         <f>B9*B11/100</f>
-        <v>163.9</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>1607.309935</v>
+        <v>1618.0972499999998</v>
       </c>
       <c r="D8" s="29"/>
       <c r="F8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="2">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6">
         <f>G8*180/3.14159</f>
-        <v>9511.1074328604318</v>
+        <v>2864.7913954398887</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="O8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2051,40 +2052,40 @@
       <c r="Q8" s="6">
         <v>347.3</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>2922.3816999999999</v>
+        <v>2941.9949999999999</v>
       </c>
       <c r="D9" s="29"/>
       <c r="F9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="8">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9">
         <f>G9*180/3.14159</f>
-        <v>10599.728163127589</v>
+        <v>4583.6662327038221</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="32" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="22" t="s">
@@ -2098,8 +2099,8 @@
         <v>347.3</v>
       </c>
       <c r="T9" s="29"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
     </row>
     <row r="10" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -2111,14 +2112,14 @@
       <c r="J10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="33">
         <f>K3-B3</f>
-        <v>33.339727577936529</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50">
+        <v>46.028456992168998</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34">
         <f>K10*9.80665</f>
-        <v>326.95103945217124</v>
+        <v>451.38496776225406</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="3" t="s">
@@ -2140,22 +2141,22 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29"/>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="J11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="33">
         <f>K4-B4</f>
-        <v>-33.339727577936536</v>
-      </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50">
+        <v>-46.028456992168991</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34">
         <f t="shared" ref="M11:M13" si="1">K11*9.80665</f>
-        <v>-326.9510394521713</v>
+        <v>-451.38496776225401</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>93</v>
@@ -2182,25 +2183,25 @@
       <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="33">
         <f>K5-B5</f>
-        <v>38.69611128882697</v>
-      </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50">
+        <v>74.143116609414449</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34">
         <f t="shared" si="1"/>
-        <v>379.47921977057496</v>
+        <v>727.09559449771416</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
       <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
@@ -2215,20 +2216,20 @@
       <c r="J13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="35">
         <f>K6-B6</f>
-        <v>-38.69611128882697</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52">
+        <v>-74.143116609414406</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36">
         <f t="shared" si="1"/>
-        <v>-379.47921977057496</v>
-      </c>
-      <c r="O13" s="33" t="s">
+        <v>-727.09559449771371</v>
+      </c>
+      <c r="O13" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
       <c r="R13" s="23"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
@@ -2276,11 +2277,11 @@
         <f>B15*1000</f>
         <v>1200</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="O15" s="4" t="s">
         <v>91</v>
       </c>
@@ -2293,9 +2294,9 @@
         <v>301.45528340524032</v>
       </c>
       <c r="R15" s="12"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
       <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2309,10 +2310,10 @@
         <f t="shared" ref="C16:C19" si="2">B16*1000</f>
         <v>1200</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="39"/>
       <c r="J16" s="11"/>
       <c r="K16" s="3" t="s">
         <v>53</v>
@@ -2333,8 +2334,8 @@
       </c>
       <c r="R16" s="12"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2342,11 +2343,11 @@
         <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
@@ -2383,18 +2384,18 @@
       </c>
       <c r="B18" s="2">
         <f>B17-G3-(G13*(G4-G3)/B19)</f>
-        <v>0.26248500000000002</v>
+        <v>0.28766999999999998</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="2"/>
-        <v>262.48500000000001</v>
+        <v>287.66999999999996</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="6">
         <f>C27*C27/(B25*9.80665)</f>
-        <v>-1.0002662189321476</v>
+        <v>-1.5021446700197927</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>62</v>
@@ -2441,7 +2442,7 @@
       </c>
       <c r="G19" s="9">
         <f>(G18*C23)-D23</f>
-        <v>-1.0002662189321476</v>
+        <v>-1.5021446700197927</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="3" t="s">
@@ -2476,11 +2477,11 @@
       </c>
       <c r="K20" s="2">
         <f>(SQRT(K17/B4))/(2*3.14159)</f>
-        <v>2.2997738170578317</v>
+        <v>2.2920950850464115</v>
       </c>
       <c r="L20" s="6">
         <f>K20*2*3.14159</f>
-        <v>14.449892851861426</v>
+        <v>14.401645996461911</v>
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
@@ -2488,31 +2489,31 @@
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="F21" s="30" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="F21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="J21" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K21" s="8">
         <f>(SQRT(K18/B5))/(2*3.14159)</f>
-        <v>2.2238526646194052</v>
+        <v>2.2164274263121264</v>
       </c>
       <c r="L21" s="9">
         <f>K21*2*3.14159</f>
-        <v>13.972866585283354</v>
-      </c>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+        <v>13.926212476455825</v>
+      </c>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -2532,8 +2533,8 @@
       <c r="H22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -2556,18 +2557,18 @@
       </c>
       <c r="G23" s="2">
         <f>B9*((G18*D23)+C23)</f>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H23" s="6">
         <f>G23*9.80665</f>
-        <v>2922.3816999999999</v>
-      </c>
-      <c r="J23" s="33" t="s">
+        <v>2941.9949999999999</v>
+      </c>
+      <c r="J23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="43"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
@@ -2586,11 +2587,11 @@
       </c>
       <c r="G24" s="2">
         <f>G23*G14/B19</f>
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:H25" si="3">G24*9.80665</f>
-        <v>1315.0717649999999</v>
+        <v>1323.8977499999999</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="3" t="s">
@@ -2602,7 +2603,7 @@
       <c r="M24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="43"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
     </row>
@@ -2622,26 +2623,26 @@
       </c>
       <c r="G25" s="2">
         <f>G23*G13/B19</f>
-        <v>163.9</v>
+        <v>165.00000000000003</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="3"/>
-        <v>1607.309935</v>
+        <v>1618.0972500000003</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>66</v>
       </c>
       <c r="K25" s="2">
         <f>K10*9.80665/K17</f>
-        <v>2.3353645675155087E-2</v>
+        <v>3.2241783411589578E-2</v>
       </c>
       <c r="L25" s="2">
         <f>K25*100</f>
-        <v>2.3353645675155086</v>
+        <v>3.2241783411589577</v>
       </c>
       <c r="M25" s="6">
         <f>K25*1000</f>
-        <v>23.353645675155086</v>
+        <v>32.24178341158958</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
@@ -2668,18 +2669,18 @@
       </c>
       <c r="K26" s="8">
         <f>K12*9.80665/K18</f>
-        <v>2.3717451235660936E-2</v>
+        <v>4.5443474656107138E-2</v>
       </c>
       <c r="L26" s="8">
         <f>K26*100</f>
-        <v>2.3717451235660936</v>
+        <v>4.5443474656107137</v>
       </c>
       <c r="M26" s="9">
         <f>K26*1000</f>
-        <v>23.717451235660935</v>
+        <v>45.443474656107135</v>
       </c>
       <c r="O26" s="29"/>
-      <c r="P26" s="43"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2687,11 +2688,11 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>22.155000000000001</v>
+        <v>27.15</v>
       </c>
       <c r="C27" s="2">
         <f>B27*0.44704</f>
-        <v>9.9041712000000004</v>
+        <v>12.137136</v>
       </c>
       <c r="D27" s="12"/>
       <c r="F27" s="19" t="s">
@@ -2699,11 +2700,11 @@
       </c>
       <c r="G27" s="8">
         <f>B9*B18/(G8+G9)</f>
-        <v>0.22285051282051285</v>
+        <v>0.66385384615384602</v>
       </c>
       <c r="H27" s="9">
         <f>G27*3.14159/180</f>
-        <v>3.8894719031766383E-3</v>
+        <v>1.1586425580769229E-2</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
@@ -2718,14 +2719,14 @@
         <v>17</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -2738,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="J29" s="16"/>
       <c r="K29" s="3" t="s">
         <v>53</v>
@@ -2781,7 +2782,7 @@
         <v>2000</v>
       </c>
       <c r="O30" s="29"/>
-      <c r="P30" s="43"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2800,11 +2801,11 @@
       </c>
       <c r="G31" s="2">
         <f>G19*(B9/B15)*((B18*G8/(G9+G8))+(G14*G3/B19))</f>
-        <v>-33.339727577936536</v>
+        <v>-46.028456992168991</v>
       </c>
       <c r="H31" s="6">
         <f>G31*9.80665</f>
-        <v>-326.9510394521713</v>
+        <v>-451.38496776225401</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>75</v>
@@ -2824,11 +2825,11 @@
       </c>
       <c r="G32" s="8">
         <f>G19*(B9/B16)*((B18*G9/(G8+G9))+(G13*G4/B19))</f>
-        <v>-38.69611128882697</v>
+        <v>-74.14311660941442</v>
       </c>
       <c r="H32" s="9">
         <f>G32*9.80665</f>
-        <v>-379.47921977057496</v>
+        <v>-727.09559449771393</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>76</v>
@@ -2841,6 +2842,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J23:M23"/>
@@ -2852,15 +2862,6 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LLT model FBR20.xlsx
+++ b/LLT model FBR20.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>Car Masses</t>
   </si>
@@ -934,7 +934,133 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Installation ratio of rear spring, </t>
+      <t>Installation ratio of front anti-roll bar,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IRbf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Installation ratio of rear anti-roll bar,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IRbr</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring rates and Anti-roll bar twist rates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front Spring rate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ksf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rear Spring rate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ksr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anti-roll bar lever arm, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t>Nm/rad</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mass Rear, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MR</t>
+    </r>
+  </si>
+  <si>
+    <t>Change in Tyre Loads from static (mechanical)</t>
+  </si>
+  <si>
+    <t>Tyre Loads (mechanical)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Effective Weights (mechanical) and Roll Gradient</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Weight distribution (% rear)</t>
+  </si>
+  <si>
+    <t>N/mm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Motion ratio of rear spring, </t>
     </r>
     <r>
       <rPr>
@@ -950,7 +1076,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Installation ratio of front spring, </t>
+      <t xml:space="preserve">Motion ratio of front spring, </t>
     </r>
     <r>
       <rPr>
@@ -963,129 +1089,6 @@
       </rPr>
       <t>IRsf</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Installation ratio of front anti-roll bar,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IRbf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Installation ratio of rear anti-roll bar,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IRbr</t>
-    </r>
-  </si>
-  <si>
-    <t>Spring rates and Anti-roll bar twist rates</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Front Spring rate, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ksf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rear Spring rate, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ksr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anti-roll bar lever arm, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-  </si>
-  <si>
-    <t>Nm/rad</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mass Rear, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MR</t>
-    </r>
-  </si>
-  <si>
-    <t>Change in Tyre Loads from static (mechanical)</t>
-  </si>
-  <si>
-    <t>Tyre Loads (mechanical)</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Effective Weights (mechanical) and Roll Gradient</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Weight distribution (% rear)</t>
   </si>
 </sst>
 </file>
@@ -1392,45 +1395,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,7 +1418,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1724,7 +1727,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1748,31 +1751,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="J1" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="J1" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="26"/>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="43"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
       <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1789,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="31" t="s">
@@ -1825,30 +1828,30 @@
       <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="55">
-        <v>2.6499999999999999E-2</v>
+      <c r="G3" s="37">
+        <v>2.92E-2</v>
       </c>
       <c r="H3" s="6">
         <f>G3*1000</f>
-        <v>26.5</v>
+        <v>29.2</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K3" s="33">
         <f>(G24/2)-G31</f>
-        <v>113.528456992169</v>
+        <v>103.40977939573565</v>
       </c>
       <c r="L3" s="34">
         <f>K3*9.80665</f>
-        <v>1113.3338427622541</v>
+        <v>1014.103513111191</v>
       </c>
       <c r="M3" s="24"/>
       <c r="O3" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P3" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="T3" s="29"/>
@@ -1884,18 +1887,18 @@
       </c>
       <c r="K4" s="33">
         <f>(G24/2)+G31</f>
-        <v>21.471543007831009</v>
+        <v>31.590220604264346</v>
       </c>
       <c r="L4" s="34">
         <f>K4*9.80665</f>
-        <v>210.56390723774595</v>
+        <v>309.79423688880894</v>
       </c>
       <c r="M4" s="24"/>
       <c r="O4" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="P4" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="T4" s="29"/>
@@ -1921,15 +1924,15 @@
       </c>
       <c r="K5" s="33">
         <f>(G25/2)-G32</f>
-        <v>156.64311660941445</v>
+        <v>139.72319014549149</v>
       </c>
       <c r="L5" s="34">
         <f>K5*9.80665</f>
-        <v>1536.1442194977142</v>
+        <v>1370.216422640284</v>
       </c>
       <c r="M5" s="24"/>
       <c r="O5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5" s="2">
         <v>0.3</v>
@@ -1953,25 +1956,25 @@
         <v>809.0486249999999</v>
       </c>
       <c r="D6" s="29"/>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="35">
         <f>(G25/2)+G32</f>
-        <v>8.3568833905855939</v>
+        <v>25.276809854508507</v>
       </c>
       <c r="L6" s="36">
         <f>K6*9.80665</f>
-        <v>81.953030502286211</v>
+        <v>247.88082735971582</v>
       </c>
       <c r="M6" s="24"/>
       <c r="O6" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P6" s="2">
         <v>0.3</v>
@@ -2000,7 +2003,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="3" t="s">
@@ -2015,7 +2018,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2">
         <f>B9*B11/100</f>
@@ -2036,12 +2039,12 @@
         <f>G8*180/3.14159</f>
         <v>2864.7913954398887</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="J8" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="O8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2052,9 +2055,9 @@
       <c r="Q8" s="6">
         <v>347.3</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2105,7 +2108,7 @@
     <row r="10" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="29"/>
@@ -2114,12 +2117,12 @@
       </c>
       <c r="K10" s="33">
         <f>K3-B3</f>
-        <v>46.028456992168998</v>
+        <v>35.909779395735654</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="34">
         <f>K10*9.80665</f>
-        <v>451.38496776225406</v>
+        <v>352.15463811119105</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="3" t="s">
@@ -2134,32 +2137,32 @@
     </row>
     <row r="11" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="8">
         <v>55</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="J11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="33">
         <f>K4-B4</f>
-        <v>-46.028456992168991</v>
+        <v>-35.909779395735654</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="34">
         <f t="shared" ref="M11:M13" si="1">K11*9.80665</f>
-        <v>-451.38496776225401</v>
+        <v>-352.15463811119105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P11" s="8">
         <f>Q11*0.3048</f>
@@ -2178,58 +2181,58 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="33">
         <f>K5-B5</f>
-        <v>74.143116609414449</v>
+        <v>57.223190145491486</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" s="34">
         <f t="shared" si="1"/>
-        <v>727.09559449771416</v>
+        <v>561.16779764028411</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="2">
         <f>B19-G14</f>
-        <v>0.88000000000000012</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="H13" s="6">
         <f>G13*1000</f>
-        <v>880.00000000000011</v>
+        <v>852.5</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K13" s="35">
         <f>K6-B6</f>
-        <v>-74.143116609414406</v>
+        <v>-57.223190145491493</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="36">
         <f t="shared" si="1"/>
-        <v>-727.09559449771371</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+        <v>-561.16779764028411</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="23"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
@@ -2241,18 +2244,18 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="8">
         <f>B7*B19/B9</f>
-        <v>0.72</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="H14" s="9">
         <f>G14*1000</f>
-        <v>720</v>
+        <v>697.5</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="3" t="s">
@@ -2262,6 +2265,9 @@
         <v>54</v>
       </c>
       <c r="R14" s="12"/>
+      <c r="S14" t="s">
+        <v>101</v>
+      </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
@@ -2277,26 +2283,30 @@
         <f>B15*1000</f>
         <v>1200</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="50"/>
       <c r="O15" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P15" s="2">
         <f>K31/(P3*P3)</f>
-        <v>52903.837777487475</v>
+        <v>28446.670598419973</v>
       </c>
       <c r="Q15" s="2">
         <f>P15/9.80665*2.2*0.0254</f>
-        <v>301.45528340524032</v>
+        <v>162.09408442635439</v>
       </c>
       <c r="R15" s="12"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
+      <c r="S15">
+        <f>P15/1000</f>
+        <v>28.446670598419974</v>
+      </c>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2310,10 +2320,10 @@
         <f t="shared" ref="C16:C19" si="2">B16*1000</f>
         <v>1200</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="49"/>
       <c r="J16" s="11"/>
       <c r="K16" s="3" t="s">
         <v>53</v>
@@ -2321,18 +2331,25 @@
       <c r="L16" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="2">
         <f>K32/(P4*P4)</f>
-        <v>60822.504424321167</v>
+        <v>47312.720831831131</v>
       </c>
       <c r="Q16" s="2">
         <f>P16/9.80665*2.2*0.0254</f>
-        <v>346.57722537574682</v>
+        <v>269.59612508682619</v>
       </c>
       <c r="R16" s="12"/>
+      <c r="S16">
+        <f>P16/1000</f>
+        <v>47.312720831831129</v>
+      </c>
       <c r="T16" s="29"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -2343,11 +2360,11 @@
         <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>0.32</v>
+        <v>0.248</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
@@ -2358,17 +2375,21 @@
         <v>61</v>
       </c>
       <c r="K17" s="2">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" s="6">
         <v>1100</v>
+      </c>
+      <c r="M17">
+        <f>K17/1000</f>
+        <v>12</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>80</v>
@@ -2384,11 +2405,11 @@
       </c>
       <c r="B18" s="2">
         <f>B17-G3-(G13*(G4-G3)/B19)</f>
-        <v>0.28766999999999998</v>
+        <v>0.21445500000000001</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="2"/>
-        <v>287.66999999999996</v>
+        <v>214.45500000000001</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>26</v>
@@ -2401,10 +2422,14 @@
         <v>62</v>
       </c>
       <c r="K18" s="2">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L18" s="6">
         <v>900</v>
+      </c>
+      <c r="M18">
+        <f>K18/1000</f>
+        <v>19</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>84</v>
@@ -2431,11 +2456,11 @@
         <v>40</v>
       </c>
       <c r="B19" s="8">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>25</v>
@@ -2477,11 +2502,11 @@
       </c>
       <c r="K20" s="2">
         <f>(SQRT(K17/B4))/(2*3.14159)</f>
-        <v>2.2920950850464115</v>
+        <v>2.1220677003258435</v>
       </c>
       <c r="L20" s="6">
         <f>K20*2*3.14159</f>
-        <v>14.401645996461911</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
@@ -2489,31 +2514,31 @@
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="F21" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="F21" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
       <c r="J21" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K21" s="8">
         <f>(SQRT(K18/B5))/(2*3.14159)</f>
-        <v>2.2164274263121264</v>
+        <v>2.4152957917466256</v>
       </c>
       <c r="L21" s="9">
         <f>K21*2*3.14159</f>
-        <v>13.926212476455825</v>
-      </c>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+        <v>15.175738212786563</v>
+      </c>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -2531,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
@@ -2563,12 +2588,12 @@
         <f>G23*9.80665</f>
         <v>2941.9949999999999</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="43"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="46"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
@@ -2601,7 +2626,7 @@
         <v>58</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O24" s="30"/>
       <c r="P24" s="29"/>
@@ -2623,26 +2648,26 @@
       </c>
       <c r="G25" s="2">
         <f>G23*G13/B19</f>
-        <v>165.00000000000003</v>
+        <v>165</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="3"/>
-        <v>1618.0972500000003</v>
+        <v>1618.0972499999998</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>66</v>
       </c>
       <c r="K25" s="2">
         <f>K10*9.80665/K17</f>
-        <v>3.2241783411589578E-2</v>
+        <v>2.9346219842599254E-2</v>
       </c>
       <c r="L25" s="2">
         <f>K25*100</f>
-        <v>3.2241783411589577</v>
+        <v>2.9346219842599255</v>
       </c>
       <c r="M25" s="6">
         <f>K25*1000</f>
-        <v>32.24178341158958</v>
+        <v>29.346219842599254</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
@@ -2669,15 +2694,15 @@
       </c>
       <c r="K26" s="8">
         <f>K12*9.80665/K18</f>
-        <v>4.5443474656107138E-2</v>
+        <v>2.9535147244225478E-2</v>
       </c>
       <c r="L26" s="8">
         <f>K26*100</f>
-        <v>4.5443474656107137</v>
+        <v>2.9535147244225479</v>
       </c>
       <c r="M26" s="9">
         <f>K26*1000</f>
-        <v>45.443474656107135</v>
+        <v>29.535147244225477</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="30"/>
@@ -2699,12 +2724,12 @@
         <v>43</v>
       </c>
       <c r="G27" s="8">
-        <f>B9*B18/(G8+G9)</f>
-        <v>0.66385384615384602</v>
+        <f>ATAN((K25+K26)/B15)*180/(PI()*G19)</f>
+        <v>-1.8700763162506857</v>
       </c>
       <c r="H27" s="9">
         <f>G27*3.14159/180</f>
-        <v>1.1586425580769229E-2</v>
+        <v>-3.263896141316662E-2</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
@@ -2719,11 +2744,11 @@
         <v>17</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="50"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
@@ -2739,17 +2764,20 @@
         <v>0</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="J29" s="16"/>
       <c r="K29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>101</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
@@ -2769,17 +2797,21 @@
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K30" s="2">
         <f>L30*9.80665/2.2/0.0254</f>
-        <v>350989.6206156048</v>
+        <v>105296.88618468145</v>
       </c>
       <c r="L30" s="6">
-        <v>2000</v>
+        <v>600</v>
+      </c>
+      <c r="M30">
+        <f>K30/1000</f>
+        <v>105.29688618468145</v>
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
@@ -2801,20 +2833,24 @@
       </c>
       <c r="G31" s="2">
         <f>G19*(B9/B15)*((B18*G8/(G9+G8))+(G14*G3/B19))</f>
-        <v>-46.028456992168991</v>
+        <v>-35.909779395735654</v>
       </c>
       <c r="H31" s="6">
         <f>G31*9.80665</f>
-        <v>-451.38496776225401</v>
+        <v>-352.15463811119105</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K31" s="2">
         <f>(K30*K17)/(K30-K17)</f>
-        <v>14581.620287419986</v>
+        <v>13543.459871907746</v>
       </c>
       <c r="L31" s="6"/>
+      <c r="M31">
+        <f t="shared" ref="M31:M32" si="4">K31/1000</f>
+        <v>13.543459871907746</v>
+      </c>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
@@ -2825,32 +2861,27 @@
       </c>
       <c r="G32" s="8">
         <f>G19*(B9/B16)*((B18*G9/(G8+G9))+(G13*G4/B19))</f>
-        <v>-74.14311660941442</v>
+        <v>-57.223190145491493</v>
       </c>
       <c r="H32" s="9">
         <f>G32*9.80665</f>
-        <v>-727.09559449771393</v>
+        <v>-561.16779764028411</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K32" s="8">
         <f>(K30*K18)/(K30-K18)</f>
-        <v>16764.202781953521</v>
+        <v>23183.233207597252</v>
       </c>
       <c r="L32" s="9"/>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>23.183233207597251</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J23:M23"/>
@@ -2862,6 +2893,15 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
